--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2161.117974465488</v>
+        <v>430062.4769186319</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.117974465488</v>
+        <v>430062.4769186319</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85697.16595958298</v>
+        <v>5856410.250825113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85697.16595958298</v>
+        <v>5856410.250825113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114353171.6964</v>
+        <v>43290764.27454729</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13665.13953848053</v>
+        <v>1288689.262942112</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24571.21921763676</v>
+        <v>2102121.152002894</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35470.53816146596</v>
+        <v>2915553.041063676</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46607.21917729203</v>
+        <v>3728093.566773194</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57744.03543668809</v>
+        <v>4540661.005953141</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68880.85169608412</v>
+        <v>5353228.445133089</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80017.66795548015</v>
+        <v>6165795.884313031</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91154.48421487624</v>
+        <v>6978363.323492977</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102393.4719949627</v>
+        <v>7746954.210963057</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113714.3673597621</v>
+        <v>8531844.707790997</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125035.2627245615</v>
+        <v>9316735.204618936</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136356.1580893609</v>
+        <v>10101625.70144687</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147677.0534541602</v>
+        <v>10886516.19827482</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158997.9488189595</v>
+        <v>11671406.69510278</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170318.844183759</v>
+        <v>12456297.19193073</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -27055,10 +27055,10 @@
         <v>5.129788070917128e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>152.9999999999991</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1372</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
